--- a/Validações Restaurante Sem Garçom/teste T e F - Fila Cx2.xlsx
+++ b/Validações Restaurante Sem Garçom/teste T e F - Fila Cx2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gian\Google Drive\Documentos\UNISINOS\2021-1\Simulacao e Modelagem de Sistemas\TGB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67D0052A-220C-49AE-A0F1-F5F935CDF08B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A90A903C-5422-4DB5-9D88-E0CEA9975D9A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="11020" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13740" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="teste normal" sheetId="1" r:id="rId1"/>
@@ -6012,14 +6012,14 @@
       <selection activeCell="U18" sqref="U18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.81640625" customWidth="1"/>
-    <col min="12" max="12" width="9.7265625" customWidth="1"/>
+    <col min="3" max="3" width="9.85546875" customWidth="1"/>
+    <col min="12" max="12" width="9.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:18" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="17">
         <v>14.42371874</v>
       </c>
@@ -6042,7 +6042,7 @@
       <c r="Q1" s="53"/>
       <c r="R1" s="53"/>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="17">
         <v>20.272395499999998</v>
       </c>
@@ -6063,7 +6063,7 @@
       <c r="Q2" s="53"/>
       <c r="R2" s="53"/>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" s="17">
         <v>16.126547550000002</v>
       </c>
@@ -6086,7 +6086,7 @@
       <c r="Q3" s="53"/>
       <c r="R3" s="53"/>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" s="17">
         <v>9.1676403549999996</v>
       </c>
@@ -6107,7 +6107,7 @@
       <c r="Q4" s="53"/>
       <c r="R4" s="53"/>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" s="17">
         <v>6.6220501799999996</v>
       </c>
@@ -6128,7 +6128,7 @@
       <c r="Q5" s="53"/>
       <c r="R5" s="53"/>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" s="17">
         <v>11.02301879</v>
       </c>
@@ -6149,7 +6149,7 @@
       <c r="Q6" s="53"/>
       <c r="R6" s="53"/>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" s="17">
         <v>7.0736561179999997</v>
       </c>
@@ -6170,7 +6170,7 @@
       <c r="Q7" s="53"/>
       <c r="R7" s="53"/>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" s="17">
         <v>11.192431210000001</v>
       </c>
@@ -6191,7 +6191,7 @@
       <c r="Q8" s="53"/>
       <c r="R8" s="53"/>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" s="17">
         <v>20.736204950000001</v>
       </c>
@@ -6213,7 +6213,7 @@
       <c r="Q9" s="53"/>
       <c r="R9" s="53"/>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" s="17">
         <v>20.360238320000001</v>
       </c>
@@ -6234,7 +6234,7 @@
       <c r="Q10" s="53"/>
       <c r="R10" s="53"/>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" s="11">
         <v>11.84624636</v>
       </c>
@@ -6255,7 +6255,7 @@
       <c r="Q11" s="53"/>
       <c r="R11" s="53"/>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" s="11">
         <v>7.5258840820000001</v>
       </c>
@@ -6276,7 +6276,7 @@
       <c r="Q12" s="53"/>
       <c r="R12" s="53"/>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" s="11">
         <v>11.898729810000001</v>
       </c>
@@ -6299,7 +6299,7 @@
       <c r="Q13" s="53"/>
       <c r="R13" s="53"/>
     </row>
-    <row r="14" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:18" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="11">
         <v>10.03270058</v>
       </c>
@@ -6322,7 +6322,7 @@
       <c r="Q14" s="68"/>
       <c r="R14" s="68"/>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" s="11">
         <v>10.903902929999999</v>
       </c>
@@ -6345,7 +6345,7 @@
       <c r="Q15" s="53"/>
       <c r="R15" s="53"/>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" s="11">
         <v>6.1023358859999997</v>
       </c>
@@ -6368,7 +6368,7 @@
       <c r="Q16" s="53"/>
       <c r="R16" s="53"/>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A17" s="11">
         <v>11.1727171</v>
       </c>
@@ -6389,7 +6389,7 @@
       <c r="Q17" s="53"/>
       <c r="R17" s="53"/>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A18" s="11">
         <v>6.5301310509999997</v>
       </c>
@@ -6410,7 +6410,7 @@
       <c r="Q18" s="53"/>
       <c r="R18" s="53"/>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A19" s="11">
         <v>18.606902229999999</v>
       </c>
@@ -6433,7 +6433,7 @@
       <c r="Q19" s="53"/>
       <c r="R19" s="53"/>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A20" s="11">
         <v>17.709295310000002</v>
       </c>
@@ -6454,7 +6454,7 @@
       <c r="Q20" s="53"/>
       <c r="R20" s="53"/>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
       <c r="C21" s="53"/>
       <c r="D21" s="58"/>
       <c r="E21" s="53"/>
@@ -6472,7 +6472,7 @@
       <c r="Q21" s="53"/>
       <c r="R21" s="53"/>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
       <c r="C22" s="53"/>
       <c r="D22" s="53"/>
       <c r="E22" s="53"/>
@@ -6490,7 +6490,7 @@
       <c r="Q22" s="53"/>
       <c r="R22" s="53"/>
     </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
       <c r="C23" s="53"/>
       <c r="D23" s="53"/>
       <c r="E23" s="53"/>
@@ -6508,7 +6508,7 @@
       <c r="Q23" s="53"/>
       <c r="R23" s="53"/>
     </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
       <c r="C24" s="53"/>
       <c r="D24" s="53"/>
       <c r="E24" s="53"/>
@@ -6526,7 +6526,7 @@
       <c r="Q24" s="53"/>
       <c r="R24" s="53"/>
     </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
       <c r="D25" s="66" t="s">
         <v>46</v>
       </c>
@@ -6567,20 +6567,20 @@
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.453125" customWidth="1"/>
-    <col min="2" max="2" width="14.453125" customWidth="1"/>
-    <col min="5" max="5" width="17.81640625" customWidth="1"/>
-    <col min="7" max="7" width="12.7265625" customWidth="1"/>
+    <col min="1" max="1" width="10.42578125" customWidth="1"/>
+    <col min="2" max="2" width="14.42578125" customWidth="1"/>
+    <col min="5" max="5" width="17.85546875" customWidth="1"/>
+    <col min="7" max="7" width="12.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B1" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="14">
         <f>'teste T'!A16</f>
         <v>1712.2222222222222</v>
@@ -6593,10 +6593,10 @@
       </c>
       <c r="D2" s="69"/>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="10">
         <f>'teste T'!B16</f>
-        <v>1624.9333333333334</v>
+        <v>1835.5999999999995</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>19</v>
@@ -6604,29 +6604,29 @@
       <c r="C3" s="69"/>
       <c r="D3" s="69"/>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="M5" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>97</v>
       </c>
       <c r="B6" s="26">
         <f>A2/A3</f>
-        <v>1.0537184431498043</v>
+        <v>0.93278613108641462</v>
       </c>
       <c r="M6" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="M7" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:13" ht="18" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>20</v>
       </c>
@@ -6640,7 +6640,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>27</v>
       </c>
@@ -6648,7 +6648,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="18" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
         <v>25</v>
       </c>
@@ -6659,7 +6659,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>26</v>
       </c>
@@ -6674,7 +6674,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E14" s="7" t="s">
         <v>1</v>
       </c>
@@ -6685,7 +6685,7 @@
         <v>11.2328845339</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>48</v>
       </c>
@@ -6699,7 +6699,7 @@
         <v>17.874684313710077</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>49</v>
       </c>
@@ -6713,7 +6713,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="5:10" x14ac:dyDescent="0.35">
+    <row r="17" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E17" s="7" t="s">
         <v>6</v>
       </c>
@@ -6724,7 +6724,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="5:10" x14ac:dyDescent="0.35">
+    <row r="18" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E18" s="7" t="s">
         <v>22</v>
       </c>
@@ -6733,7 +6733,7 @@
       </c>
       <c r="G18" s="7"/>
     </row>
-    <row r="19" spans="5:10" x14ac:dyDescent="0.35">
+    <row r="19" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E19" s="7" t="s">
         <v>23</v>
       </c>
@@ -6742,7 +6742,7 @@
       </c>
       <c r="G19" s="7"/>
     </row>
-    <row r="20" spans="5:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="5:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E20" s="8" t="s">
         <v>24</v>
       </c>
@@ -6751,7 +6751,7 @@
       </c>
       <c r="G20" s="8"/>
     </row>
-    <row r="25" spans="5:10" ht="21" x14ac:dyDescent="0.5">
+    <row r="25" spans="5:10" ht="21" x14ac:dyDescent="0.35">
       <c r="I25" t="s">
         <v>50</v>
       </c>
@@ -6759,47 +6759,47 @@
         <v>51</v>
       </c>
     </row>
-    <row r="28" spans="5:10" x14ac:dyDescent="0.35">
+    <row r="28" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E28" s="38"/>
       <c r="F28" s="38"/>
       <c r="G28" s="38"/>
     </row>
-    <row r="29" spans="5:10" x14ac:dyDescent="0.35">
+    <row r="29" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E29" s="39"/>
       <c r="F29" s="39"/>
       <c r="G29" s="39"/>
     </row>
-    <row r="30" spans="5:10" x14ac:dyDescent="0.35">
+    <row r="30" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E30" s="7"/>
       <c r="F30" s="7"/>
       <c r="G30" s="7"/>
     </row>
-    <row r="31" spans="5:10" x14ac:dyDescent="0.35">
+    <row r="31" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E31" s="7"/>
       <c r="F31" s="7"/>
       <c r="G31" s="7"/>
     </row>
-    <row r="32" spans="5:10" x14ac:dyDescent="0.35">
+    <row r="32" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E32" s="7"/>
       <c r="F32" s="7"/>
       <c r="G32" s="7"/>
     </row>
-    <row r="33" spans="5:7" x14ac:dyDescent="0.35">
+    <row r="33" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E33" s="7"/>
       <c r="F33" s="7"/>
       <c r="G33" s="7"/>
     </row>
-    <row r="34" spans="5:7" x14ac:dyDescent="0.35">
+    <row r="34" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E34" s="7"/>
       <c r="F34" s="7"/>
       <c r="G34" s="7"/>
     </row>
-    <row r="35" spans="5:7" x14ac:dyDescent="0.35">
+    <row r="35" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E35" s="7"/>
       <c r="F35" s="7"/>
       <c r="G35" s="7"/>
     </row>
-    <row r="36" spans="5:7" x14ac:dyDescent="0.35">
+    <row r="36" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E36" s="7"/>
       <c r="F36" s="7"/>
       <c r="G36" s="7"/>
@@ -6824,27 +6824,27 @@
   <dimension ref="A1:O34"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="11" max="11" width="30.1796875" customWidth="1"/>
-    <col min="12" max="12" width="18.1796875" customWidth="1"/>
-    <col min="13" max="13" width="17.7265625" customWidth="1"/>
+    <col min="11" max="11" width="30.140625" customWidth="1"/>
+    <col min="12" max="12" width="18.140625" customWidth="1"/>
+    <col min="13" max="13" width="17.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="26.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:15" ht="26.45" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="6" t="s">
         <v>15</v>
       </c>
@@ -6865,12 +6865,12 @@
       </c>
       <c r="H4" s="1"/>
     </row>
-    <row r="5" spans="1:15" ht="17.5" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:15" ht="18.75" x14ac:dyDescent="0.35">
       <c r="A5" s="19">
         <v>12</v>
       </c>
       <c r="B5" s="18">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>59</v>
@@ -6882,24 +6882,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="19">
         <v>33</v>
       </c>
       <c r="B6" s="18">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="19">
         <v>45</v>
       </c>
       <c r="B7" s="18">
-        <v>42</v>
+        <v>56</v>
       </c>
       <c r="D7">
         <f>ABS(media_a  - media_b)</f>
-        <v>1.5999999999999943</v>
+        <v>11.599999999999994</v>
       </c>
       <c r="F7">
         <f>10*10*(10+10-2)</f>
@@ -6913,16 +6913,16 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="19">
         <v>54</v>
       </c>
       <c r="B8" s="18">
-        <v>57</v>
+        <v>68</v>
       </c>
       <c r="D8">
         <f>SQRT(9*A16+9*B16)</f>
-        <v>173.30435655228058</v>
+        <v>178.69079439075756</v>
       </c>
       <c r="F8">
         <f>10+10</f>
@@ -6938,12 +6938,12 @@
         <v>11.2328845339</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="19">
         <v>65</v>
       </c>
       <c r="B9" s="18">
-        <v>72</v>
+        <v>83</v>
       </c>
       <c r="K9" s="7" t="s">
         <v>2</v>
@@ -6955,16 +6955,16 @@
         <v>17.874684313710077</v>
       </c>
     </row>
-    <row r="10" spans="1:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="19">
         <v>83</v>
       </c>
       <c r="B10" s="18">
-        <v>80</v>
+        <v>99</v>
       </c>
       <c r="D10">
         <f>D7/D8</f>
-        <v>9.2323126309714187E-3</v>
+        <v>6.491660658597409E-2</v>
       </c>
       <c r="F10">
         <f>SQRT(F7/F8)</f>
@@ -6975,7 +6975,7 @@
       </c>
       <c r="H10" s="67">
         <f>D10*F10</f>
-        <v>8.7585407953833821E-2</v>
+        <v>0.61585300434229606</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>3</v>
@@ -6987,12 +6987,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="19">
         <v>94</v>
       </c>
       <c r="B11" s="18">
-        <v>89</v>
+        <v>109</v>
       </c>
       <c r="K11" s="7" t="s">
         <v>4</v>
@@ -7002,12 +7002,12 @@
       </c>
       <c r="M11" s="7"/>
     </row>
-    <row r="12" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="19">
         <v>110</v>
       </c>
       <c r="B12" s="18">
-        <v>105</v>
+        <v>123</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>13</v>
@@ -7023,12 +7023,12 @@
       </c>
       <c r="M12" s="7"/>
     </row>
-    <row r="13" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="19">
         <v>125</v>
       </c>
       <c r="B13" s="18">
-        <v>119</v>
+        <v>136</v>
       </c>
       <c r="D13" s="21" t="s">
         <v>12</v>
@@ -7044,12 +7044,12 @@
       </c>
       <c r="M13" s="7"/>
     </row>
-    <row r="14" spans="1:15" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:15" ht="19.5" x14ac:dyDescent="0.35">
       <c r="A14" s="19">
         <v>139</v>
       </c>
       <c r="B14" s="18">
-        <v>139</v>
+        <v>147</v>
       </c>
       <c r="D14" s="23" t="s">
         <v>52</v>
@@ -7062,14 +7062,14 @@
       </c>
       <c r="M14" s="7"/>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="12">
         <f>AVERAGE(A5:A14)</f>
         <v>76</v>
       </c>
       <c r="B15" s="12">
         <f>AVERAGE(B5:B14)</f>
-        <v>74.400000000000006</v>
+        <v>87.6</v>
       </c>
       <c r="K15" s="7" t="s">
         <v>8</v>
@@ -7079,14 +7079,14 @@
       </c>
       <c r="M15" s="7"/>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="14">
         <f>_xlfn.VAR.S(A5:A14)</f>
         <v>1712.2222222222222</v>
       </c>
       <c r="B16" s="14">
         <f>_xlfn.VAR.S(B5:B14)</f>
-        <v>1624.9333333333334</v>
+        <v>1835.5999999999995</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>9</v>
@@ -7099,14 +7099,14 @@
         <v>63</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <f>SQRT(A16)</f>
         <v>41.379007023153932</v>
       </c>
       <c r="B17" s="1">
         <f>SQRT(B16)</f>
-        <v>40.310461834780973</v>
+        <v>42.84390271672271</v>
       </c>
       <c r="K17" s="7" t="s">
         <v>10</v>
@@ -7116,7 +7116,7 @@
       </c>
       <c r="M17" s="7"/>
     </row>
-    <row r="18" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="13">
         <f>(A5-media_a)^2</f>
         <v>4096</v>
@@ -7129,13 +7129,13 @@
       </c>
       <c r="M18" s="8"/>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" s="13">
         <f t="shared" ref="A19:A27" si="0">(A6-media_a)^2</f>
         <v>1849</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" s="13">
         <f t="shared" si="0"/>
         <v>961</v>
@@ -7150,13 +7150,13 @@
         <v>45</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" s="13">
         <f t="shared" si="0"/>
         <v>484</v>
       </c>
     </row>
-    <row r="22" spans="1:14" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:14" ht="18" x14ac:dyDescent="0.35">
       <c r="A22" s="13">
         <f t="shared" si="0"/>
         <v>121</v>
@@ -7165,7 +7165,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23" s="13">
         <f t="shared" si="0"/>
         <v>49</v>
@@ -7174,25 +7174,25 @@
         <v>54</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" s="13">
         <f t="shared" si="0"/>
         <v>324</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" s="13">
         <f t="shared" si="0"/>
         <v>1156</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" s="13">
         <f t="shared" si="0"/>
         <v>2401</v>
       </c>
     </row>
-    <row r="27" spans="1:14" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A27" s="13">
         <f t="shared" si="0"/>
         <v>3969</v>
@@ -7201,13 +7201,13 @@
         <v>61</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" s="15">
         <f>SUM(A18:A27)/9</f>
         <v>1712.2222222222222</v>
       </c>
     </row>
-    <row r="34" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="34" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E34" s="32" t="s">
         <v>46</v>
       </c>
@@ -7233,12 +7233,12 @@
       <selection activeCell="M2" sqref="M2:M11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="5" max="6" width="9.6328125" customWidth="1"/>
+    <col min="5" max="6" width="9.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="5:13" x14ac:dyDescent="0.35">
+    <row r="1" spans="5:13" x14ac:dyDescent="0.25">
       <c r="E1" t="s">
         <v>105</v>
       </c>
@@ -7252,7 +7252,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="2" spans="5:13" x14ac:dyDescent="0.35">
+    <row r="2" spans="5:13" x14ac:dyDescent="0.25">
       <c r="E2">
         <v>1</v>
       </c>
@@ -7268,7 +7268,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="5:13" x14ac:dyDescent="0.35">
+    <row r="3" spans="5:13" x14ac:dyDescent="0.25">
       <c r="E3">
         <v>2</v>
       </c>
@@ -7284,7 +7284,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="5:13" x14ac:dyDescent="0.35">
+    <row r="4" spans="5:13" x14ac:dyDescent="0.25">
       <c r="E4">
         <v>3</v>
       </c>
@@ -7300,7 +7300,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="5" spans="5:13" x14ac:dyDescent="0.35">
+    <row r="5" spans="5:13" x14ac:dyDescent="0.25">
       <c r="E5">
         <v>4</v>
       </c>
@@ -7316,7 +7316,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="6" spans="5:13" x14ac:dyDescent="0.35">
+    <row r="6" spans="5:13" x14ac:dyDescent="0.25">
       <c r="E6">
         <v>5</v>
       </c>
@@ -7332,7 +7332,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="7" spans="5:13" x14ac:dyDescent="0.35">
+    <row r="7" spans="5:13" x14ac:dyDescent="0.25">
       <c r="E7">
         <v>6</v>
       </c>
@@ -7348,7 +7348,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="8" spans="5:13" x14ac:dyDescent="0.35">
+    <row r="8" spans="5:13" x14ac:dyDescent="0.25">
       <c r="E8">
         <v>7</v>
       </c>
@@ -7364,7 +7364,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="9" spans="5:13" x14ac:dyDescent="0.35">
+    <row r="9" spans="5:13" x14ac:dyDescent="0.25">
       <c r="E9">
         <v>8</v>
       </c>
@@ -7380,7 +7380,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="10" spans="5:13" x14ac:dyDescent="0.35">
+    <row r="10" spans="5:13" x14ac:dyDescent="0.25">
       <c r="E10">
         <v>9</v>
       </c>
@@ -7396,7 +7396,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="11" spans="5:13" x14ac:dyDescent="0.35">
+    <row r="11" spans="5:13" x14ac:dyDescent="0.25">
       <c r="E11">
         <v>10</v>
       </c>
@@ -7412,7 +7412,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="12" spans="5:13" x14ac:dyDescent="0.35">
+    <row r="12" spans="5:13" x14ac:dyDescent="0.25">
       <c r="E12">
         <v>11</v>
       </c>
@@ -7420,7 +7420,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="5:13" x14ac:dyDescent="0.35">
+    <row r="13" spans="5:13" x14ac:dyDescent="0.25">
       <c r="E13">
         <v>12</v>
       </c>
@@ -7428,7 +7428,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="5:13" x14ac:dyDescent="0.35">
+    <row r="14" spans="5:13" x14ac:dyDescent="0.25">
       <c r="E14">
         <v>13</v>
       </c>
@@ -7436,7 +7436,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="15" spans="5:13" x14ac:dyDescent="0.35">
+    <row r="15" spans="5:13" x14ac:dyDescent="0.25">
       <c r="E15">
         <v>14</v>
       </c>
@@ -7444,7 +7444,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="5:13" x14ac:dyDescent="0.35">
+    <row r="16" spans="5:13" x14ac:dyDescent="0.25">
       <c r="E16">
         <v>15</v>
       </c>
@@ -7452,7 +7452,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="17" spans="5:6" x14ac:dyDescent="0.35">
+    <row r="17" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E17">
         <v>16</v>
       </c>
@@ -7460,7 +7460,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="18" spans="5:6" x14ac:dyDescent="0.35">
+    <row r="18" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E18">
         <v>17</v>
       </c>
@@ -7468,7 +7468,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="19" spans="5:6" x14ac:dyDescent="0.35">
+    <row r="19" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E19">
         <v>18</v>
       </c>
@@ -7476,7 +7476,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="20" spans="5:6" x14ac:dyDescent="0.35">
+    <row r="20" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E20">
         <v>19</v>
       </c>
@@ -7484,7 +7484,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="21" spans="5:6" x14ac:dyDescent="0.35">
+    <row r="21" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E21">
         <v>20</v>
       </c>
@@ -7492,7 +7492,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="22" spans="5:6" x14ac:dyDescent="0.35">
+    <row r="22" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E22">
         <v>21</v>
       </c>
@@ -7500,7 +7500,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="23" spans="5:6" x14ac:dyDescent="0.35">
+    <row r="23" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E23">
         <v>22</v>
       </c>
@@ -7508,7 +7508,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="24" spans="5:6" x14ac:dyDescent="0.35">
+    <row r="24" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E24">
         <v>23</v>
       </c>
@@ -7516,7 +7516,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="25" spans="5:6" x14ac:dyDescent="0.35">
+    <row r="25" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E25">
         <v>24</v>
       </c>
@@ -7524,7 +7524,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="26" spans="5:6" x14ac:dyDescent="0.35">
+    <row r="26" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E26">
         <v>25</v>
       </c>
@@ -7532,7 +7532,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="27" spans="5:6" x14ac:dyDescent="0.35">
+    <row r="27" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E27">
         <v>26</v>
       </c>
@@ -7540,7 +7540,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="28" spans="5:6" x14ac:dyDescent="0.35">
+    <row r="28" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E28">
         <v>27</v>
       </c>
@@ -7548,7 +7548,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="29" spans="5:6" x14ac:dyDescent="0.35">
+    <row r="29" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E29">
         <v>28</v>
       </c>
@@ -7556,7 +7556,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="30" spans="5:6" x14ac:dyDescent="0.35">
+    <row r="30" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E30">
         <v>29</v>
       </c>
@@ -7564,7 +7564,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="31" spans="5:6" x14ac:dyDescent="0.35">
+    <row r="31" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E31">
         <v>30</v>
       </c>
@@ -7572,7 +7572,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="32" spans="5:6" x14ac:dyDescent="0.35">
+    <row r="32" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E32">
         <v>31</v>
       </c>
@@ -7580,7 +7580,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="33" spans="5:6" x14ac:dyDescent="0.35">
+    <row r="33" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E33">
         <v>32</v>
       </c>
@@ -7588,7 +7588,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="34" spans="5:6" x14ac:dyDescent="0.35">
+    <row r="34" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E34">
         <v>33</v>
       </c>
@@ -7596,7 +7596,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="35" spans="5:6" x14ac:dyDescent="0.35">
+    <row r="35" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E35">
         <v>34</v>
       </c>
@@ -7604,7 +7604,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="36" spans="5:6" x14ac:dyDescent="0.35">
+    <row r="36" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E36">
         <v>35</v>
       </c>
@@ -7612,7 +7612,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="37" spans="5:6" x14ac:dyDescent="0.35">
+    <row r="37" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E37">
         <v>36</v>
       </c>
@@ -7620,7 +7620,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="38" spans="5:6" x14ac:dyDescent="0.35">
+    <row r="38" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E38">
         <v>37</v>
       </c>
@@ -7628,7 +7628,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="39" spans="5:6" x14ac:dyDescent="0.35">
+    <row r="39" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E39">
         <v>38</v>
       </c>
@@ -7636,7 +7636,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="40" spans="5:6" x14ac:dyDescent="0.35">
+    <row r="40" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E40">
         <v>39</v>
       </c>
@@ -7644,7 +7644,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="41" spans="5:6" x14ac:dyDescent="0.35">
+    <row r="41" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E41">
         <v>40</v>
       </c>
@@ -7652,7 +7652,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="42" spans="5:6" x14ac:dyDescent="0.35">
+    <row r="42" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E42">
         <v>41</v>
       </c>
@@ -7660,7 +7660,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="43" spans="5:6" x14ac:dyDescent="0.35">
+    <row r="43" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E43">
         <v>42</v>
       </c>
@@ -7668,7 +7668,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="44" spans="5:6" x14ac:dyDescent="0.35">
+    <row r="44" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E44">
         <v>43</v>
       </c>
@@ -7676,7 +7676,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="45" spans="5:6" x14ac:dyDescent="0.35">
+    <row r="45" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E45">
         <v>44</v>
       </c>
@@ -7684,7 +7684,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="46" spans="5:6" x14ac:dyDescent="0.35">
+    <row r="46" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E46">
         <v>45</v>
       </c>
@@ -7692,7 +7692,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="47" spans="5:6" x14ac:dyDescent="0.35">
+    <row r="47" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E47">
         <v>46</v>
       </c>
@@ -7700,7 +7700,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="48" spans="5:6" x14ac:dyDescent="0.35">
+    <row r="48" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E48">
         <v>47</v>
       </c>
@@ -7708,7 +7708,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="49" spans="5:6" x14ac:dyDescent="0.35">
+    <row r="49" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E49">
         <v>48</v>
       </c>
@@ -7716,7 +7716,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="50" spans="5:6" x14ac:dyDescent="0.35">
+    <row r="50" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E50">
         <v>49</v>
       </c>
@@ -7724,7 +7724,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="51" spans="5:6" x14ac:dyDescent="0.35">
+    <row r="51" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E51">
         <v>50</v>
       </c>
@@ -7732,7 +7732,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="52" spans="5:6" x14ac:dyDescent="0.35">
+    <row r="52" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E52">
         <v>51</v>
       </c>
@@ -7740,7 +7740,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="53" spans="5:6" x14ac:dyDescent="0.35">
+    <row r="53" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E53">
         <v>52</v>
       </c>
@@ -7748,7 +7748,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="54" spans="5:6" x14ac:dyDescent="0.35">
+    <row r="54" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E54">
         <v>53</v>
       </c>
@@ -7756,7 +7756,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="55" spans="5:6" x14ac:dyDescent="0.35">
+    <row r="55" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E55">
         <v>54</v>
       </c>
@@ -7764,7 +7764,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="56" spans="5:6" x14ac:dyDescent="0.35">
+    <row r="56" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E56">
         <v>55</v>
       </c>
@@ -7772,7 +7772,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="57" spans="5:6" x14ac:dyDescent="0.35">
+    <row r="57" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E57">
         <v>56</v>
       </c>
@@ -7780,7 +7780,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="58" spans="5:6" x14ac:dyDescent="0.35">
+    <row r="58" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E58">
         <v>57</v>
       </c>
@@ -7788,7 +7788,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="59" spans="5:6" x14ac:dyDescent="0.35">
+    <row r="59" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E59">
         <v>58</v>
       </c>
@@ -7796,7 +7796,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="60" spans="5:6" x14ac:dyDescent="0.35">
+    <row r="60" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E60">
         <v>59</v>
       </c>
@@ -7804,7 +7804,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="61" spans="5:6" x14ac:dyDescent="0.35">
+    <row r="61" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E61">
         <v>60</v>
       </c>
@@ -7812,7 +7812,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="62" spans="5:6" x14ac:dyDescent="0.35">
+    <row r="62" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E62">
         <v>61</v>
       </c>
@@ -7820,7 +7820,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="63" spans="5:6" x14ac:dyDescent="0.35">
+    <row r="63" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E63">
         <v>62</v>
       </c>
@@ -7828,7 +7828,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="64" spans="5:6" x14ac:dyDescent="0.35">
+    <row r="64" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E64">
         <v>63</v>
       </c>
@@ -7836,7 +7836,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="65" spans="5:6" x14ac:dyDescent="0.35">
+    <row r="65" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E65">
         <v>64</v>
       </c>
@@ -7844,7 +7844,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="66" spans="5:6" x14ac:dyDescent="0.35">
+    <row r="66" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E66">
         <v>65</v>
       </c>
@@ -7852,7 +7852,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="67" spans="5:6" x14ac:dyDescent="0.35">
+    <row r="67" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E67">
         <v>66</v>
       </c>
@@ -7860,7 +7860,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="68" spans="5:6" x14ac:dyDescent="0.35">
+    <row r="68" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E68">
         <v>67</v>
       </c>
@@ -7868,7 +7868,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="69" spans="5:6" x14ac:dyDescent="0.35">
+    <row r="69" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E69">
         <v>68</v>
       </c>
@@ -7876,7 +7876,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="70" spans="5:6" x14ac:dyDescent="0.35">
+    <row r="70" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E70">
         <v>69</v>
       </c>
@@ -7884,7 +7884,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="71" spans="5:6" x14ac:dyDescent="0.35">
+    <row r="71" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E71">
         <v>70</v>
       </c>
@@ -7892,7 +7892,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="72" spans="5:6" x14ac:dyDescent="0.35">
+    <row r="72" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E72">
         <v>71</v>
       </c>
@@ -7900,7 +7900,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="73" spans="5:6" x14ac:dyDescent="0.35">
+    <row r="73" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E73">
         <v>72</v>
       </c>
@@ -7908,7 +7908,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="74" spans="5:6" x14ac:dyDescent="0.35">
+    <row r="74" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E74">
         <v>73</v>
       </c>
@@ -7916,7 +7916,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="75" spans="5:6" x14ac:dyDescent="0.35">
+    <row r="75" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E75">
         <v>74</v>
       </c>
@@ -7924,7 +7924,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="76" spans="5:6" x14ac:dyDescent="0.35">
+    <row r="76" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E76">
         <v>75</v>
       </c>
@@ -7932,7 +7932,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="77" spans="5:6" x14ac:dyDescent="0.35">
+    <row r="77" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E77">
         <v>76</v>
       </c>
@@ -7940,7 +7940,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="78" spans="5:6" x14ac:dyDescent="0.35">
+    <row r="78" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E78">
         <v>77</v>
       </c>
@@ -7948,7 +7948,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="79" spans="5:6" x14ac:dyDescent="0.35">
+    <row r="79" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E79">
         <v>78</v>
       </c>
@@ -7956,7 +7956,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="80" spans="5:6" x14ac:dyDescent="0.35">
+    <row r="80" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E80">
         <v>79</v>
       </c>
@@ -7964,7 +7964,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="81" spans="5:6" x14ac:dyDescent="0.35">
+    <row r="81" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E81">
         <v>80</v>
       </c>
@@ -7972,7 +7972,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="82" spans="5:6" x14ac:dyDescent="0.35">
+    <row r="82" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E82">
         <v>81</v>
       </c>
@@ -7980,7 +7980,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="83" spans="5:6" x14ac:dyDescent="0.35">
+    <row r="83" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E83">
         <v>82</v>
       </c>
@@ -7988,7 +7988,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="84" spans="5:6" x14ac:dyDescent="0.35">
+    <row r="84" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E84">
         <v>83</v>
       </c>
@@ -7996,7 +7996,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="85" spans="5:6" x14ac:dyDescent="0.35">
+    <row r="85" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E85">
         <v>84</v>
       </c>
@@ -8004,7 +8004,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="86" spans="5:6" x14ac:dyDescent="0.35">
+    <row r="86" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E86">
         <v>85</v>
       </c>
@@ -8012,7 +8012,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="87" spans="5:6" x14ac:dyDescent="0.35">
+    <row r="87" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E87">
         <v>86</v>
       </c>
@@ -8020,7 +8020,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="88" spans="5:6" x14ac:dyDescent="0.35">
+    <row r="88" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E88">
         <v>87</v>
       </c>
@@ -8028,7 +8028,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="89" spans="5:6" x14ac:dyDescent="0.35">
+    <row r="89" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E89">
         <v>88</v>
       </c>
@@ -8036,7 +8036,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="90" spans="5:6" x14ac:dyDescent="0.35">
+    <row r="90" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E90">
         <v>89</v>
       </c>
@@ -8044,7 +8044,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="91" spans="5:6" x14ac:dyDescent="0.35">
+    <row r="91" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E91">
         <v>90</v>
       </c>
@@ -8052,7 +8052,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="92" spans="5:6" x14ac:dyDescent="0.35">
+    <row r="92" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E92">
         <v>91</v>
       </c>
@@ -8060,7 +8060,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="93" spans="5:6" x14ac:dyDescent="0.35">
+    <row r="93" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E93">
         <v>92</v>
       </c>
@@ -8068,7 +8068,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="94" spans="5:6" x14ac:dyDescent="0.35">
+    <row r="94" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E94">
         <v>93</v>
       </c>
@@ -8076,7 +8076,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="95" spans="5:6" x14ac:dyDescent="0.35">
+    <row r="95" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E95">
         <v>94</v>
       </c>
@@ -8084,7 +8084,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="96" spans="5:6" x14ac:dyDescent="0.35">
+    <row r="96" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E96">
         <v>95</v>
       </c>
@@ -8092,7 +8092,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="97" spans="5:6" x14ac:dyDescent="0.35">
+    <row r="97" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E97">
         <v>96</v>
       </c>
@@ -8100,7 +8100,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="98" spans="5:6" x14ac:dyDescent="0.35">
+    <row r="98" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E98">
         <v>97</v>
       </c>
@@ -8108,7 +8108,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="99" spans="5:6" x14ac:dyDescent="0.35">
+    <row r="99" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E99">
         <v>98</v>
       </c>
@@ -8116,7 +8116,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="100" spans="5:6" x14ac:dyDescent="0.35">
+    <row r="100" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E100">
         <v>99</v>
       </c>
@@ -8124,7 +8124,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="101" spans="5:6" x14ac:dyDescent="0.35">
+    <row r="101" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E101">
         <v>100</v>
       </c>
@@ -8132,7 +8132,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="102" spans="5:6" x14ac:dyDescent="0.35">
+    <row r="102" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E102">
         <v>101</v>
       </c>
@@ -8140,7 +8140,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="103" spans="5:6" x14ac:dyDescent="0.35">
+    <row r="103" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E103">
         <v>102</v>
       </c>
@@ -8148,7 +8148,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="104" spans="5:6" x14ac:dyDescent="0.35">
+    <row r="104" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E104">
         <v>103</v>
       </c>
@@ -8156,7 +8156,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="105" spans="5:6" x14ac:dyDescent="0.35">
+    <row r="105" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E105">
         <v>104</v>
       </c>
@@ -8164,7 +8164,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="106" spans="5:6" x14ac:dyDescent="0.35">
+    <row r="106" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E106">
         <v>105</v>
       </c>
@@ -8172,7 +8172,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="107" spans="5:6" x14ac:dyDescent="0.35">
+    <row r="107" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E107">
         <v>106</v>
       </c>
@@ -8180,7 +8180,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="108" spans="5:6" x14ac:dyDescent="0.35">
+    <row r="108" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E108">
         <v>107</v>
       </c>
@@ -8188,7 +8188,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="109" spans="5:6" x14ac:dyDescent="0.35">
+    <row r="109" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E109">
         <v>108</v>
       </c>
@@ -8196,7 +8196,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="110" spans="5:6" x14ac:dyDescent="0.35">
+    <row r="110" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E110">
         <v>109</v>
       </c>
@@ -8204,7 +8204,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="111" spans="5:6" x14ac:dyDescent="0.35">
+    <row r="111" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E111">
         <v>110</v>
       </c>
@@ -8212,7 +8212,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="112" spans="5:6" x14ac:dyDescent="0.35">
+    <row r="112" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E112">
         <v>111</v>
       </c>
@@ -8220,7 +8220,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="113" spans="5:6" x14ac:dyDescent="0.35">
+    <row r="113" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E113">
         <v>112</v>
       </c>
@@ -8228,7 +8228,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="114" spans="5:6" x14ac:dyDescent="0.35">
+    <row r="114" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E114">
         <v>113</v>
       </c>
@@ -8236,7 +8236,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="115" spans="5:6" x14ac:dyDescent="0.35">
+    <row r="115" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E115">
         <v>114</v>
       </c>
@@ -8244,7 +8244,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="116" spans="5:6" x14ac:dyDescent="0.35">
+    <row r="116" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E116">
         <v>115</v>
       </c>
@@ -8252,7 +8252,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="117" spans="5:6" x14ac:dyDescent="0.35">
+    <row r="117" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E117">
         <v>116</v>
       </c>
@@ -8260,7 +8260,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="118" spans="5:6" x14ac:dyDescent="0.35">
+    <row r="118" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E118">
         <v>117</v>
       </c>
@@ -8268,7 +8268,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="119" spans="5:6" x14ac:dyDescent="0.35">
+    <row r="119" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E119">
         <v>118</v>
       </c>
@@ -8276,7 +8276,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="120" spans="5:6" x14ac:dyDescent="0.35">
+    <row r="120" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E120">
         <v>119</v>
       </c>
@@ -8284,7 +8284,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="121" spans="5:6" x14ac:dyDescent="0.35">
+    <row r="121" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E121">
         <v>120</v>
       </c>
@@ -8292,7 +8292,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="122" spans="5:6" x14ac:dyDescent="0.35">
+    <row r="122" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E122">
         <v>121</v>
       </c>
@@ -8300,7 +8300,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="123" spans="5:6" x14ac:dyDescent="0.35">
+    <row r="123" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E123">
         <v>122</v>
       </c>
@@ -8308,7 +8308,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="124" spans="5:6" x14ac:dyDescent="0.35">
+    <row r="124" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E124">
         <v>123</v>
       </c>
@@ -8316,7 +8316,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="125" spans="5:6" x14ac:dyDescent="0.35">
+    <row r="125" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E125">
         <v>124</v>
       </c>
@@ -8324,7 +8324,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="126" spans="5:6" x14ac:dyDescent="0.35">
+    <row r="126" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E126">
         <v>125</v>
       </c>
@@ -8332,7 +8332,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="127" spans="5:6" x14ac:dyDescent="0.35">
+    <row r="127" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E127">
         <v>126</v>
       </c>
@@ -8340,7 +8340,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="128" spans="5:6" x14ac:dyDescent="0.35">
+    <row r="128" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E128">
         <v>127</v>
       </c>
@@ -8348,7 +8348,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="129" spans="5:6" x14ac:dyDescent="0.35">
+    <row r="129" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E129">
         <v>128</v>
       </c>
@@ -8356,7 +8356,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="130" spans="5:6" x14ac:dyDescent="0.35">
+    <row r="130" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E130">
         <v>129</v>
       </c>
@@ -8364,7 +8364,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="131" spans="5:6" x14ac:dyDescent="0.35">
+    <row r="131" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E131">
         <v>130</v>
       </c>
@@ -8372,7 +8372,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="132" spans="5:6" x14ac:dyDescent="0.35">
+    <row r="132" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E132">
         <v>131</v>
       </c>
@@ -8380,7 +8380,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="133" spans="5:6" x14ac:dyDescent="0.35">
+    <row r="133" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E133">
         <v>132</v>
       </c>
@@ -8388,7 +8388,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="134" spans="5:6" x14ac:dyDescent="0.35">
+    <row r="134" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E134">
         <v>133</v>
       </c>
@@ -8396,7 +8396,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="135" spans="5:6" x14ac:dyDescent="0.35">
+    <row r="135" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E135">
         <v>134</v>
       </c>
@@ -8404,7 +8404,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="136" spans="5:6" x14ac:dyDescent="0.35">
+    <row r="136" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E136">
         <v>135</v>
       </c>
@@ -8412,7 +8412,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="137" spans="5:6" x14ac:dyDescent="0.35">
+    <row r="137" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E137">
         <v>136</v>
       </c>
@@ -8420,7 +8420,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="138" spans="5:6" x14ac:dyDescent="0.35">
+    <row r="138" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E138">
         <v>137</v>
       </c>
@@ -8428,7 +8428,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="139" spans="5:6" x14ac:dyDescent="0.35">
+    <row r="139" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E139">
         <v>138</v>
       </c>
@@ -8436,7 +8436,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="140" spans="5:6" x14ac:dyDescent="0.35">
+    <row r="140" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E140">
         <v>139</v>
       </c>
@@ -8444,7 +8444,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="141" spans="5:6" x14ac:dyDescent="0.35">
+    <row r="141" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E141">
         <v>140</v>
       </c>
@@ -8452,7 +8452,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="142" spans="5:6" x14ac:dyDescent="0.35">
+    <row r="142" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E142">
         <v>141</v>
       </c>
@@ -8460,7 +8460,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="143" spans="5:6" x14ac:dyDescent="0.35">
+    <row r="143" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E143">
         <v>142</v>
       </c>
@@ -8468,7 +8468,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="144" spans="5:6" x14ac:dyDescent="0.35">
+    <row r="144" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E144">
         <v>143</v>
       </c>
@@ -8476,7 +8476,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="145" spans="5:6" x14ac:dyDescent="0.35">
+    <row r="145" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E145">
         <v>144</v>
       </c>
@@ -8484,7 +8484,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="146" spans="5:6" x14ac:dyDescent="0.35">
+    <row r="146" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E146">
         <v>145</v>
       </c>
@@ -8492,7 +8492,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="147" spans="5:6" x14ac:dyDescent="0.35">
+    <row r="147" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E147">
         <v>146</v>
       </c>
@@ -8500,7 +8500,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="148" spans="5:6" x14ac:dyDescent="0.35">
+    <row r="148" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E148">
         <v>147</v>
       </c>
@@ -8508,7 +8508,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="149" spans="5:6" x14ac:dyDescent="0.35">
+    <row r="149" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E149">
         <v>148</v>
       </c>
@@ -8516,7 +8516,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="150" spans="5:6" x14ac:dyDescent="0.35">
+    <row r="150" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E150">
         <v>149</v>
       </c>
@@ -8524,7 +8524,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="151" spans="5:6" x14ac:dyDescent="0.35">
+    <row r="151" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E151">
         <v>150</v>
       </c>
@@ -8549,12 +8549,12 @@
       <selection activeCell="Y28" sqref="Y28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.81640625" customWidth="1"/>
+    <col min="1" max="1" width="10.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>35</v>
       </c>
@@ -8562,7 +8562,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>36</v>
       </c>
@@ -8570,7 +8570,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>37</v>
       </c>
@@ -8579,16 +8579,16 @@
         <v>76</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>38</v>
       </c>
       <c r="B5" s="45">
         <f>media_b</f>
-        <v>74.400000000000006</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+        <v>87.6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>39</v>
       </c>
@@ -8597,72 +8597,72 @@
         <v>1712.2222222222222</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>40</v>
       </c>
       <c r="B7" s="42">
         <f>'teste T'!B16</f>
-        <v>1624.9333333333334</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+        <v>1835.5999999999995</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>100</v>
       </c>
       <c r="B9">
         <f>(B6/B2+B7/B3)^2</f>
-        <v>111366.07201975309</v>
+        <v>125870.42520493823</v>
       </c>
       <c r="C9" s="4">
         <f>B9/B10</f>
-        <v>17.987693331467998</v>
+        <v>17.978258084744226</v>
       </c>
       <c r="D9" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B10">
         <f>(B6/10)^2/9+(B7/10)^2/9</f>
-        <v>6191.2369733882033</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+        <v>7001.2581091906695</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>103</v>
       </c>
       <c r="B12">
         <f>B4-B5</f>
-        <v>1.5999999999999943</v>
+        <v>-11.599999999999994</v>
       </c>
       <c r="C12" s="5">
         <f>B12/B13</f>
-        <v>8.7585407953833794E-2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+        <v>-0.61585300434229595</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B13">
         <f>SQRT(B6/10+B7/10)</f>
-        <v>18.267883171171082</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+        <v>18.835663572654461</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="30" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="30" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="30" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="30" t="s">
         <v>87</v>
       </c>
@@ -8670,12 +8670,12 @@
         <v>102</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="30" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="17.5" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:5" ht="18.75" x14ac:dyDescent="0.35">
       <c r="A23" s="34" t="s">
         <v>85</v>
       </c>
@@ -8700,21 +8700,21 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.453125" style="6" customWidth="1"/>
+    <col min="1" max="1" width="17.42578125" style="6" customWidth="1"/>
     <col min="2" max="2" width="5" style="6" customWidth="1"/>
-    <col min="3" max="3" width="21.453125" style="6" customWidth="1"/>
-    <col min="4" max="4" width="5.81640625" customWidth="1"/>
-    <col min="5" max="5" width="17.453125" customWidth="1"/>
-    <col min="6" max="6" width="3.453125" customWidth="1"/>
-    <col min="7" max="7" width="4.81640625" customWidth="1"/>
-    <col min="8" max="8" width="16.26953125" style="6" customWidth="1"/>
-    <col min="9" max="9" width="16.7265625" style="6" customWidth="1"/>
-    <col min="10" max="10" width="9.7265625" customWidth="1"/>
+    <col min="3" max="3" width="21.42578125" style="6" customWidth="1"/>
+    <col min="4" max="4" width="5.85546875" customWidth="1"/>
+    <col min="5" max="5" width="17.42578125" customWidth="1"/>
+    <col min="6" max="6" width="3.42578125" customWidth="1"/>
+    <col min="7" max="7" width="4.85546875" customWidth="1"/>
+    <col min="8" max="8" width="16.28515625" style="6" customWidth="1"/>
+    <col min="9" max="9" width="16.7109375" style="6" customWidth="1"/>
+    <col min="10" max="10" width="9.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="29.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:19" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>64</v>
       </c>
@@ -8731,7 +8731,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="40">
         <v>6.6220501799999996</v>
       </c>
@@ -8760,7 +8760,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" s="40">
         <v>7.0736561179999997</v>
       </c>
@@ -8789,7 +8789,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" s="40">
         <v>9.1676403549999996</v>
       </c>
@@ -8815,7 +8815,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" s="40">
         <v>11.02301879</v>
       </c>
@@ -8841,7 +8841,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" s="40">
         <v>11.192431210000001</v>
       </c>
@@ -8867,7 +8867,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" s="40">
         <v>14.42371874</v>
       </c>
@@ -8893,7 +8893,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" s="40">
         <v>16.126547550000002</v>
       </c>
@@ -8919,7 +8919,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" s="40">
         <v>20.272395499999998</v>
       </c>
@@ -8945,7 +8945,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" s="40">
         <v>20.360238320000001</v>
       </c>
@@ -8971,7 +8971,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" s="40">
         <v>20.736204950000001</v>
       </c>
@@ -8997,7 +8997,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="E12" s="40">
         <v>11.192431210000001</v>
       </c>
@@ -9016,7 +9016,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="13" spans="1:19" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:19" ht="18" x14ac:dyDescent="0.35">
       <c r="C13" s="63" t="s">
         <v>81</v>
       </c>
@@ -9043,7 +9043,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="14" spans="1:19" ht="16.5" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:19" ht="18" x14ac:dyDescent="0.35">
       <c r="E14" s="41">
         <v>11.898729810000001</v>
       </c>
@@ -9061,7 +9061,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="E15" s="40">
         <v>14.42371874</v>
       </c>
@@ -9079,7 +9079,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="E16" s="40">
         <v>16.126547550000002</v>
       </c>
@@ -9092,7 +9092,7 @@
       <c r="K16" s="3"/>
       <c r="L16" s="1"/>
     </row>
-    <row r="17" spans="5:15" x14ac:dyDescent="0.35">
+    <row r="17" spans="5:15" x14ac:dyDescent="0.25">
       <c r="E17" s="41">
         <v>17.709295310000002</v>
       </c>
@@ -9110,7 +9110,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="18" spans="5:15" x14ac:dyDescent="0.35">
+    <row r="18" spans="5:15" x14ac:dyDescent="0.25">
       <c r="E18" s="41">
         <v>18.606902229999999</v>
       </c>
@@ -9135,7 +9135,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="19" spans="5:15" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="19" spans="5:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="E19" s="40">
         <v>20.272395499999998</v>
       </c>
@@ -9153,7 +9153,7 @@
         <v>-1.0583005244258363</v>
       </c>
     </row>
-    <row r="20" spans="5:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="5:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E20" s="40">
         <v>20.360238320000001</v>
       </c>
@@ -9164,7 +9164,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="5:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="5:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E21" s="40">
         <v>20.736204950000001</v>
       </c>
@@ -9180,17 +9180,17 @@
         <v>75</v>
       </c>
     </row>
-    <row r="22" spans="5:15" x14ac:dyDescent="0.35">
+    <row r="22" spans="5:15" x14ac:dyDescent="0.25">
       <c r="M22" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="23" spans="5:15" x14ac:dyDescent="0.35">
+    <row r="23" spans="5:15" x14ac:dyDescent="0.25">
       <c r="I23" s="6" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="24" spans="5:15" x14ac:dyDescent="0.35">
+    <row r="24" spans="5:15" x14ac:dyDescent="0.25">
       <c r="I24" s="64" t="s">
         <v>93</v>
       </c>
